--- a/rerun_sentiments.xlsx
+++ b/rerun_sentiments.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B416"/>
+  <dimension ref="A1:B415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,137 +451,137 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2013-08-06</t>
+          <t>2014-03-06</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8000000000000002</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2011-09-01</t>
+          <t>2014-06-04</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8000000000000002</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2010-05-21</t>
+          <t>2014-07-04</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8000000000000002</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2014-06-04</t>
+          <t>2014-08-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2014-11-25</t>
+          <t>2014-08-05</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.5666666666666667</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2014-10-20</t>
+          <t>2014-08-24</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6999999999999998</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2014-11-11</t>
+          <t>2014-10-20</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4</v>
+        <v>0.6999999999999998</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2014-03-06</t>
+          <t>2014-11-11</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2014-08-05</t>
+          <t>2014-11-25</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2014-07-04</t>
+          <t>2016-06-07</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2014-08-24</t>
+          <t>2019-02-18</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2014-08-01</t>
+          <t>2018-10-26</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2016-06-07</t>
+          <t>2019-05-30</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2019-02-18</t>
+          <t>2016-10-21</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -591,347 +591,347 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2018-10-26</t>
+          <t>2019-03-08</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2019-05-30</t>
+          <t>2019-02-12</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2016-10-21</t>
+          <t>2016-01-25</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.55</v>
+        <v>-0.7333333333333334</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2019-03-08</t>
+          <t>2018-09-20</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2019-02-12</t>
+          <t>2015-05-21</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.6</v>
+        <v>0.5666666666666667</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2016-01-25</t>
+          <t>2015-11-11</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.7333333333333334</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2018-09-20</t>
+          <t>2018-02-12</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2015-05-21</t>
+          <t>2018-07-02</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.7333333333333334</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2015-11-11</t>
+          <t>2019-10-31</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1</v>
+        <v>-0.58</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2018-02-12</t>
+          <t>2019-08-20</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.16</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2018-07-02</t>
+          <t>2018-01-24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.7333333333333334</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2019-10-31</t>
+          <t>2019-09-18</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.58</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2019-08-20</t>
+          <t>2019-03-26</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.12</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2018-01-24</t>
+          <t>2019-10-22</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.5</v>
+        <v>0.5666666666666667</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2019-09-18</t>
+          <t>2016-11-29</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2019-03-26</t>
+          <t>2017-09-21</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.7666666666666666</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2019-10-22</t>
+          <t>2018-08-24</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2016-11-29</t>
+          <t>2016-10-04</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.2</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2017-09-21</t>
+          <t>2019-09-04</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.7666666666666666</v>
+        <v>0.6999999999999998</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2018-08-24</t>
+          <t>2017-07-13</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.5</v>
+        <v>0.7666666666666666</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2016-10-04</t>
+          <t>2016-05-30</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5666666666666668</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2019-09-04</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.6999999999999998</v>
+        <v>0.2333333333333333</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2017-07-13</t>
+          <t>2015-06-25</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.7666666666666666</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2016-05-30</t>
+          <t>2018-04-30</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.5666666666666668</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-09-05</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.3666666666666667</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2015-06-25</t>
+          <t>2016-12-08</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.28</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2018-04-30</t>
+          <t>2015-04-06</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2019-09-05</t>
+          <t>2018-05-04</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.3666666666666667</v>
+        <v>0.6999999999999998</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2016-12-08</t>
+          <t>2019-01-11</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.03333333333333333</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2015-04-06</t>
+          <t>2019-07-05</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.6</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2018-05-04</t>
+          <t>2019-07-30</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.6999999999999998</v>
+        <v>0.7333333333333334</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2019-01-11</t>
+          <t>2016-10-04</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0.04</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2019-07-05</t>
+          <t>2017-10-23</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0.5</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2019-07-30</t>
+          <t>2018-05-18</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.7333333333333334</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2016-10-04</t>
+          <t>2018-05-16</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -941,257 +941,257 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2017-10-23</t>
+          <t>2018-08-16</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2018-05-18</t>
+          <t>2018-07-05</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.6333333333333333</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2018-05-16</t>
+          <t>2019-09-03</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7333333333333334</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2018-08-16</t>
+          <t>2017-12-27</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2018-07-05</t>
+          <t>2018-05-23</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-0.28</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2019-09-03</t>
+          <t>2017-09-25</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.7333333333333334</v>
+        <v>0.4666666666666666</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2017-12-27</t>
+          <t>2018-05-30</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.15</v>
+        <v>0.7333333333333334</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2018-05-23</t>
+          <t>2016-04-07</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.2</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2017-09-25</t>
+          <t>2015-05-15</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.4666666666666666</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2018-05-30</t>
+          <t>2016-10-25</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.7333333333333334</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2016-04-07</t>
+          <t>2017-10-30</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.7333333333333334</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2015-05-15</t>
+          <t>2018-03-07</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2016-10-25</t>
+          <t>2019-02-13</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2017-10-30</t>
+          <t>2018-09-12</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.7333333333333334</v>
+        <v>0.6999999999999998</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2018-03-07</t>
+          <t>2018-09-12</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.2</v>
+        <v>0.7333333333333334</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2019-02-13</t>
+          <t>2016-04-21</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2018-09-12</t>
+          <t>2016-04-13</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.6999999999999998</v>
+        <v>-0.5666666666666667</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2018-09-12</t>
+          <t>2016-12-14</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.7333333333333334</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2016-04-21</t>
+          <t>2016-04-06</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.5333333333333333</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2016-04-13</t>
+          <t>2015-04-16</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-0.5666666666666667</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2016-12-14</t>
+          <t>2019-02-20</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2016-04-06</t>
+          <t>2018-09-25</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-0.1</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2015-04-16</t>
+          <t>2018-06-04</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.04</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2019-02-20</t>
+          <t>2017-10-05</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.5666666666666667</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2018-09-25</t>
+          <t>2019-07-29</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.55</v>
+        <v>0.7333333333333334</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2018-06-04</t>
+          <t>2016-11-24</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1201,107 +1201,107 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2017-10-05</t>
+          <t>2016-10-14</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.7333333333333334</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2019-07-29</t>
+          <t>2015-02-17</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.7333333333333334</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2016-11-24</t>
+          <t>2016-11-16</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2016-10-14</t>
+          <t>2019-03-12</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.7333333333333334</v>
+        <v>0.6999999999999998</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2015-02-17</t>
+          <t>2016-08-22</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.05</v>
+        <v>-0.03999999999999999</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2016-11-16</t>
+          <t>2018-10-10</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.1</v>
+        <v>0.6999999999999998</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2019-03-12</t>
+          <t>2016-07-25</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.6999999999999998</v>
+        <v>0.7666666666666666</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2016-08-22</t>
+          <t>2016-08-25</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-0.03999999999999999</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2018-10-10</t>
+          <t>2016-10-30</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.6999999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2016-07-25</t>
+          <t>2016-06-22</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.7666666666666666</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2016-08-25</t>
+          <t>2018-10-06</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1311,17 +1311,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2016-10-30</t>
+          <t>2019-04-20</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2016-06-22</t>
+          <t>2016-09-29</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1331,227 +1331,227 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2018-10-06</t>
+          <t>2016-09-23</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2019-04-20</t>
+          <t>2016-06-10</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.25</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2016-09-29</t>
+          <t>2019-07-23</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.5666666666666667</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2016-09-23</t>
+          <t>2016-08-18</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2016-06-10</t>
+          <t>2016-07-28</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2019-07-23</t>
+          <t>2019-04-08</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2016-08-18</t>
+          <t>2016-09-29</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.2</v>
+        <v>0.5666666666666667</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2016-07-28</t>
+          <t>2016-11-18</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2019-04-08</t>
+          <t>2016-09-08</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.2</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2016-09-29</t>
+          <t>2015-03-23</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2016-11-18</t>
+          <t>2015-07-17</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2016-09-08</t>
+          <t>2019-07-12</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.8000000000000002</v>
+        <v>0.5666666666666668</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2015-03-23</t>
+          <t>2019-09-26</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2015-07-17</t>
+          <t>2015-03-19</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2019-07-12</t>
+          <t>2016-07-08</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.5666666666666668</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2019-09-26</t>
+          <t>2019-01-15</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.75</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2015-03-19</t>
+          <t>2019-10-03</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2016-07-08</t>
+          <t>2019-09-24</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.6</v>
+        <v>0.6999999999999998</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2019-01-15</t>
+          <t>2016-12-19</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.2</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2019-10-03</t>
+          <t>2018-12-03</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.3</v>
+        <v>0.6999999999999998</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2019-09-24</t>
+          <t>2015-04-01</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.6999999999999998</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2016-12-19</t>
+          <t>2016-11-13</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.6999999999999998</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2018-12-03</t>
+          <t>2016-10-28</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1561,127 +1561,127 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2015-04-01</t>
+          <t>2019-09-05</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2016-11-13</t>
+          <t>2016-10-28</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.6999999999999998</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2016-10-28</t>
+          <t>2019-06-14</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.6999999999999998</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2019-09-05</t>
+          <t>2019-12-29</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.25</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2016-10-28</t>
+          <t>2019-09-20</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.25</v>
+        <v>0.5666666666666667</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2019-06-14</t>
+          <t>2016-08-19</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2019-12-29</t>
+          <t>2019-04-19</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2019-09-20</t>
+          <t>2016-08-26</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.7333333333333334</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2016-08-19</t>
+          <t>2015-09-30</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.2</v>
+        <v>0.7333333333333334</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2019-04-19</t>
+          <t>2019-06-10</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6999999999999998</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2016-08-26</t>
+          <t>2019-05-30</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.7333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2015-09-30</t>
+          <t>2016-10-31</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.7333333333333334</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2019-06-10</t>
+          <t>2019-02-12</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -1691,87 +1691,87 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2019-05-30</t>
+          <t>2016-10-10</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2016-10-31</t>
+          <t>2019-07-17</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.6</v>
+        <v>0.2333333333333333</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2019-02-12</t>
+          <t>2015-09-05</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.6999999999999998</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2016-10-10</t>
+          <t>2016-10-06</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.8000000000000002</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2019-07-17</t>
+          <t>2019-04-09</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2015-09-05</t>
+          <t>2019-04-11</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.25</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2016-10-06</t>
+          <t>2019-02-18</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5666666666666668</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2019-04-09</t>
+          <t>2016-10-28</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.6</v>
+        <v>-0.4333333333333333</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2019-04-11</t>
+          <t>2015-03-16</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -1781,227 +1781,227 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2019-02-18</t>
+          <t>2019-09-30</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.5666666666666668</v>
+        <v>0.6999999999999998</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2016-10-28</t>
+          <t>2016-09-23</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-0.4333333333333333</v>
+        <v>0.3666666666666667</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2015-03-16</t>
+          <t>2018-10-19</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2019-09-30</t>
+          <t>2018-02-13</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.6999999999999998</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2016-09-23</t>
+          <t>2016-05-23</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.3666666666666667</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2018-10-19</t>
+          <t>2018-01-26</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2018-02-13</t>
+          <t>2018-05-18</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2016-05-23</t>
+          <t>2019-09-17</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.6</v>
+        <v>0.5666666666666668</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2018-01-26</t>
+          <t>2018-10-01</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2018-05-18</t>
+          <t>2018-11-30</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6999999999999998</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2019-09-17</t>
+          <t>2019-10-01</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.5666666666666668</v>
+        <v>0.6999999999999998</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2018-10-01</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.75</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2018-11-30</t>
+          <t>2019-07-02</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.6999999999999998</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2019-10-01</t>
+          <t>2015-09-28</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.6999999999999998</v>
+        <v>0.7333333333333334</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-05-17</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.2</v>
+        <v>0.7333333333333334</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2019-07-02</t>
+          <t>2018-04-12</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.8000000000000002</v>
+        <v>0.7333333333333334</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2015-09-28</t>
+          <t>2018-11-28</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.7333333333333334</v>
+        <v>0.5666666666666667</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2019-05-17</t>
+          <t>2019-06-24</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.7333333333333334</v>
+        <v>0.6999999999999998</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2018-04-12</t>
+          <t>2019-08-13</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.7333333333333334</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2018-11-28</t>
+          <t>2018-05-09</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2019-06-24</t>
+          <t>2018-05-17</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.6999999999999998</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2019-08-13</t>
+          <t>2018-05-18</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.2</v>
+        <v>0.7333333333333334</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2018-05-09</t>
+          <t>2019-10-03</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -2011,537 +2011,537 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2018-05-17</t>
+          <t>2018-08-20</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7666666666666666</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2018-05-18</t>
+          <t>2019-02-26</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.7333333333333334</v>
+        <v>0.5666666666666667</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2019-10-03</t>
+          <t>2018-04-02</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.5</v>
+        <v>0.7333333333333334</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2018-08-20</t>
+          <t>2018-12-03</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.7666666666666666</v>
+        <v>0.6999999999999998</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2019-02-26</t>
+          <t>2018-09-27</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2018-04-02</t>
+          <t>2018-05-14</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.7333333333333334</v>
+        <v>0.5666666666666667</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2018-12-03</t>
+          <t>2019-08-26</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.6999999999999998</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2018-09-27</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.6666666666666666</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2018-05-14</t>
+          <t>2018-08-27</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2019-08-26</t>
+          <t>2018-10-31</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-03-19</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>-0.1</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2018-08-27</t>
+          <t>2018-01-09</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.6333333333333333</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2018-10-31</t>
+          <t>2019-01-16</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5666666666666667</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2019-03-19</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2018-01-09</t>
+          <t>2018-03-12</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>-0.08</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2019-01-16</t>
+          <t>2018-08-01</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.7666666666666666</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2018-01-31</t>
+          <t>2019-04-23</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2018-03-12</t>
+          <t>2018-08-01</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4666666666666666</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2018-08-01</t>
+          <t>2017-12-11</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.7666666666666666</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2019-04-23</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2018-08-01</t>
+          <t>2019-04-29</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.4666666666666666</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2017-12-11</t>
+          <t>2019-07-17</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.25</v>
+        <v>0.5666666666666667</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2017-04-10</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2019-04-29</t>
+          <t>2018-11-12</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.2</v>
+        <v>0.6999999999999998</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2019-07-17</t>
+          <t>2019-08-29</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2017-04-10</t>
+          <t>2017-06-07</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2018-11-12</t>
+          <t>2017-06-30</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.6999999999999998</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2019-08-29</t>
+          <t>2015-03-29</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2017-06-07</t>
+          <t>2019-12-30</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.6</v>
+        <v>0.7666666666666666</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2017-06-30</t>
+          <t>2018-10-17</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.2</v>
+        <v>0.7333333333333334</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2015-03-29</t>
+          <t>2017-12-17</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2017-12-14</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.7666666666666666</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2018-10-17</t>
+          <t>2017-01-24</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.7333333333333334</v>
+        <v>-0.6666666666666666</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2017-12-17</t>
+          <t>2017-01-24</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.2</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2017-12-14</t>
+          <t>2023-05-08</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.2</v>
+        <v>-0.4333333333333333</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2023-05-08</t>
+          <t>2022-04-08</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>-0.4333333333333333</v>
+        <v>0.7666666666666666</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2022-04-08</t>
+          <t>2023-05-18</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.7666666666666666</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2023-05-18</t>
+          <t>2023-08-29</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.25</v>
+        <v>0.6999999999999998</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2023-08-29</t>
+          <t>2023-09-01</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0.6999999999999998</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>2022-09-20</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0.75</v>
+        <v>0.5666666666666667</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2022-09-20</t>
+          <t>2024-02-13</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2024-02-13</t>
+          <t>2023-09-12</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0.55</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2023-09-12</t>
+          <t>2024-01-11</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0.6666666666666666</v>
+        <v>-0.5666666666666667</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2024-01-11</t>
+          <t>2022-05-20</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>-0.5666666666666667</v>
+        <v>0.7666666666666666</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2022-05-20</t>
+          <t>2024-02-01</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.7666666666666666</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2024-02-01</t>
+          <t>2023-05-15</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2023-05-15</t>
+          <t>2022-07-26</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.2333333333333333</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2022-07-26</t>
+          <t>2024-04-09</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2024-04-09</t>
+          <t>2024-05-08</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2024-05-08</t>
+          <t>2023-08-09</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7666666666666666</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2023-08-09</t>
+          <t>2023-10-13</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.7666666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2023-10-13</t>
+          <t>2023-11-14</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2023-11-14</t>
+          <t>2020-07-16</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>-0.64</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2020-07-16</t>
+          <t>2022-08-26</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -2551,327 +2551,327 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2022-08-26</t>
+          <t>2023-11-15</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2023-11-15</t>
+          <t>2024-02-02</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0.15</v>
+        <v>0.2333333333333333</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2024-02-02</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-12-26</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2022-12-26</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0.25</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2024-01-23</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0.8000000000000002</v>
+        <v>-0.03999999999999999</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2024-01-23</t>
+          <t>2023-12-18</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>-0.03999999999999999</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>-0.24</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0.1666666666666667</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2023-11-06</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>-0.5</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2023-11-06</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2024-02-14</t>
+          <t>2020-02-13</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0.75</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2024-06-17</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0.5333333333333333</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>-0.46</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2020-07-15</t>
+          <t>2020-08-14</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0.6</v>
+        <v>-0.6666666666666666</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2020-08-14</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>-0.6666666666666666</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2022-10-21</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>-0.06</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2022-10-21</t>
+          <t>2022-12-06</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>-0.08</v>
+        <v>-0.6666666666666666</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2022-12-06</t>
+          <t>2023-01-09</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>-0.6666666666666666</v>
+        <v>0.6999999999999998</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2024-01-25</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0.6999999999999998</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2024-01-25</t>
+          <t>2022-09-27</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2022-09-27</t>
+          <t>2020-03-13</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2020-03-13</t>
+          <t>2020-08-20</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0.5</v>
+        <v>0.7666666666666666</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2020-08-20</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0.7666666666666666</v>
+        <v>0.4000000000000001</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2021-06-08</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0.4000000000000001</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2021-06-08</t>
+          <t>2021-01-25</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0.6666666666666666</v>
+        <v>-0.3666666666666667</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2021-01-25</t>
+          <t>2020-06-25</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>-0.3666666666666667</v>
+        <v>0.5666666666666668</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-06-13</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>0.5666666666666668</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2020-06-13</t>
+          <t>2024-06-27</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2024-06-27</t>
+          <t>2021-11-28</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0.2</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2021-11-28</t>
+          <t>2021-05-25</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0.8000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2021-05-25</t>
+          <t>2021-04-11</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0.2</v>
+        <v>0.7333333333333334</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2021-04-11</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -2881,497 +2881,497 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2024-06-16</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0.7333333333333334</v>
+        <v>0.7666666666666666</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2024-06-16</t>
+          <t>2023-08-08</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0.7666666666666666</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2023-08-08</t>
+          <t>2020-03-20</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2020-03-20</t>
+          <t>2024-05-02</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0.5</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2024-05-02</t>
+          <t>2014-03-26</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2014-03-26</t>
+          <t>2021-10-21</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2021-10-21</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0.15</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2022-12-28</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>0.6333333333333333</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2022-12-28</t>
+          <t>2024-01-23</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>-0.04</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2024-01-23</t>
+          <t>2022-05-11</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>0.6</v>
+        <v>0.6833333333333332</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2022-05-11</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0.6833333333333332</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-07-12</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.7666666666666666</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2022-07-12</t>
+          <t>2021-04-21</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0.7666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2021-04-21</t>
+          <t>2022-07-01</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6999999999999998</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2022-07-01</t>
+          <t>2020-01-29</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>0.6999999999999998</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2024-04-28</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>2024-04-28</t>
+          <t>2021-03-17</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0.55</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>2021-03-17</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0.1</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-02</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0.5333333333333333</v>
+        <v>-0.5333333333333333</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>2022-06-02</t>
+          <t>2020-03-04</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>-0.5333333333333333</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2020-06-28</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>2020-06-28</t>
+          <t>2024-05-29</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>-1</v>
+        <v>0.7666666666666666</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>2024-05-29</t>
+          <t>2022-07-13</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>0.7666666666666666</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>2022-07-13</t>
+          <t>2022-04-05</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>2022-04-05</t>
+          <t>2023-12-27</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>2023-12-27</t>
+          <t>2021-05-31</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>0.6</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>2021-05-31</t>
+          <t>2021-02-24</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>2021-02-24</t>
+          <t>2021-04-01</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>0.5</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>2021-04-01</t>
+          <t>2021-03-25</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>0.02</v>
+        <v>0.7333333333333334</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>2021-03-25</t>
+          <t>2023-11-23</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>0.7333333333333334</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>2023-11-23</t>
+          <t>2024-06-03</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>0.8000000000000002</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>2024-06-03</t>
+          <t>2023-12-20</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>2023-12-20</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.5666666666666667</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>2022-04-11</t>
+          <t>2022-09-05</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.5666666666666668</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>2022-09-05</t>
+          <t>2020-02-12</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>0.5666666666666668</v>
+        <v>0.7666666666666666</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>2020-02-12</t>
+          <t>2022-04-12</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>0.7666666666666666</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>2022-04-12</t>
+          <t>2022-07-18</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>2022-07-18</t>
+          <t>2021-01-28</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>2021-01-28</t>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>0.25</v>
+        <v>0.7666666666666666</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>2022-05-04</t>
+          <t>2021-12-16</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>0.7666666666666666</v>
+        <v>-0.5333333333333333</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>2021-12-16</t>
+          <t>2024-04-25</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>-0.5333333333333333</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>2024-04-25</t>
+          <t>2024-04-26</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>0.1</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>2024-04-26</t>
+          <t>2021-01-06</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.6999999999999998</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>2021-01-06</t>
+          <t>2021-02-03</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>0.6999999999999998</v>
+        <v>0.7666666666666666</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>2021-02-03</t>
+          <t>2024-05-09</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>0.7666666666666666</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>2024-05-09</t>
+          <t>2024-04-04</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>2024-04-04</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>0.5</v>
+        <v>0.6999999999999998</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>2022-06-29</t>
+          <t>2021-06-14</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>0.6999999999999998</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>2021-06-14</t>
+          <t>2021-11-19</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -3381,251 +3381,251 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>2021-11-19</t>
+          <t>2020-04-29</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>2020-04-29</t>
+          <t>2020-01-28</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
+          <t>2022-05-20</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>2022-05-20</t>
+          <t>2021-05-10</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.6999999999999998</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>2021-05-10</t>
+          <t>2020-06-17</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>0.6999999999999998</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>2020-06-17</t>
+          <t>2021-10-28</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>2021-10-28</t>
+          <t>2021-12-30</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>2021-12-30</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>0.75</v>
+        <v>-0.03999999999999999</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2021-08-20</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>-0.03999999999999999</v>
+        <v>0.6999999999999998</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>2021-08-20</t>
+          <t>2021-05-10</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>0.6999999999999998</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>2021-05-10</t>
+          <t>2020-11-21</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>2020-11-21</t>
+          <t>2021-11-27</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>0.75</v>
+        <v>0.7166666666666667</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>2021-11-27</t>
+          <t>2021-05-23</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>0.7166666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>2021-05-23</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>0</v>
+        <v>0.7333333333333334</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2024-01-13</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>0.7333333333333334</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>2024-01-13</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>0.7000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>2024-05-27</t>
+          <t>2023-07-10</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>2023-07-10</t>
+          <t>2023-08-21</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>0.6666666666666666</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>2023-08-21</t>
+          <t>2023-08-18</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>-0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>2023-08-18</t>
+          <t>2021-08-26</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>0.6</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>2021-08-26</t>
+          <t>2023-02-14</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2333333333333333</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2023-07-04</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>0.5</v>
+        <v>0.6499999999999999</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>2023-07-04</t>
+          <t>2023-02-04</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>0.6499999999999999</v>
+        <v>-0.5599999999999999</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>2023-02-04</t>
+          <t>2023-07-03</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>-0.5599999999999999</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="320">
@@ -3635,307 +3635,307 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>2023-07-03</t>
+          <t>2022-02-23</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>0.2</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>2022-02-23</t>
+          <t>2023-11-09</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>0.75</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>2023-11-09</t>
+          <t>2021-07-28</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>2021-07-28</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>2020-01-20</t>
+          <t>2023-10-12</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>2023-10-12</t>
+          <t>2021-11-23</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>0.05</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>2021-11-23</t>
+          <t>2021-01-19</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>0.75</v>
+        <v>0.6999999999999998</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>2020-06-23</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>0.6999999999999998</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>2020-06-23</t>
+          <t>2023-10-18</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>2023-10-18</t>
+          <t>2021-07-22</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>0.5</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>2021-07-22</t>
+          <t>2024-02-02</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.2333333333333333</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>2024-02-02</t>
+          <t>2024-01-31</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>2024-01-31</t>
+          <t>2020-01-24</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>2020-01-24</t>
+          <t>2020-12-14</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>0.2</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>2020-12-14</t>
+          <t>2020-11-18</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>-0.04</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>2020-11-18</t>
+          <t>2021-07-21</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>0.2</v>
+        <v>0.3666666666666667</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>2021-07-21</t>
+          <t>2022-07-11</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>0.3666666666666667</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>2022-07-11</t>
+          <t>2024-04-18</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>2024-04-18</t>
+          <t>2023-04-25</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>0.7000000000000001</v>
+        <v>-0.5333333333333333</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>2023-04-25</t>
+          <t>2023-12-02</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>-0.5333333333333333</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>2023-12-02</t>
+          <t>2020-04-29</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>0.4</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>2020-04-29</t>
+          <t>2021-01-20</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>-0.7</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>2021-01-20</t>
+          <t>2024-01-26</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>0.6333333333333333</v>
+        <v>-0.4666666666666666</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>2024-01-26</t>
+          <t>2023-01-26</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>-0.4666666666666666</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>2023-01-26</t>
+          <t>2021-10-04</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>-0.45</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>2021-10-04</t>
+          <t>2023-06-24</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>0.1333333333333333</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>2023-06-24</t>
+          <t>2024-06-28</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>-0.6</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>2024-06-28</t>
+          <t>2024-02-29</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>0.05</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>2024-02-29</t>
+          <t>2023-08-24</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>0.1333333333333333</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>2023-08-24</t>
+          <t>2023-05-25</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>-0.5</v>
+        <v>-0.5666666666666667</v>
       </c>
     </row>
     <row r="351">
@@ -3945,113 +3945,113 @@
         </is>
       </c>
       <c r="B351" t="n">
-        <v>-0.5666666666666667</v>
+        <v>0.3666666666666667</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>2023-05-25</t>
+          <t>2023-03-27</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>0.3666666666666667</v>
+        <v>0.7333333333333334</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>2023-03-27</t>
+          <t>2020-01-08</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>0.7333333333333334</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2022-07-08</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>0.05</v>
+        <v>0.7666666666666666</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>2022-07-08</t>
+          <t>2022-08-18</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>0.7666666666666666</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>2022-08-18</t>
+          <t>2021-03-22</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>0.8000000000000002</v>
+        <v>0.7166666666666667</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>2021-03-22</t>
+          <t>2021-11-23</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>0.7166666666666667</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>2021-11-23</t>
+          <t>2022-04-26</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.7333333333333334</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>2022-04-26</t>
+          <t>2022-06-20</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>0.7333333333333334</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>2022-06-20</t>
+          <t>2022-06-18</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>2022-06-18</t>
+          <t>2022-07-12</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>0.5</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>2022-07-12</t>
+          <t>2023-11-28</t>
         </is>
       </c>
       <c r="B362" t="n">
@@ -4061,540 +4061,530 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>2023-11-28</t>
+          <t>2023-05-07</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>0.8000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>2023-05-07</t>
+          <t>2022-04-04</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>2022-04-04</t>
+          <t>2021-09-01</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>0.7</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>2021-09-01</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>0.8000000000000002</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>2020-02-18</t>
+          <t>2023-11-01</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.7333333333333334</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>2023-11-01</t>
+          <t>2021-06-29</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>0.7333333333333334</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>2021-06-29</t>
+          <t>2021-09-21</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>0.4333333333333333</v>
+        <v>-0.5666666666666667</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>2021-09-21</t>
+          <t>2021-05-07</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>-0.5666666666666667</v>
+        <v>0.6499999999999999</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>2021-05-07</t>
+          <t>2022-06-06</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.3666666666666667</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>2022-06-06</t>
+          <t>2022-04-05</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>0.3666666666666667</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>2022-04-05</t>
+          <t>2021-01-17</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>2021-01-17</t>
+          <t>2022-04-14</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>0.25</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>2022-04-14</t>
+          <t>2021-10-23</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>2021-10-23</t>
+          <t>2023-02-20</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>0.8666666666666667</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>2023-02-20</t>
+          <t>2021-03-10</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>-0.46</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>2021-03-10</t>
+          <t>2022-07-06</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>2022-07-06</t>
+          <t>2023-03-14</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>0.45</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>2023-03-14</t>
+          <t>2021-10-07</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>-0.06</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>2021-10-07</t>
+          <t>2020-10-30</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>2022-09-28</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>2022-09-28</t>
+          <t>2022-09-26</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>0.55</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>2022-09-26</t>
+          <t>2020-10-26</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>2020-10-26</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-07-06</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>0.75</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>2021-07-06</t>
+          <t>2020-10-16</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>0.8000000000000002</v>
+        <v>-0.02000000000000001</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>2020-10-16</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>-0.02000000000000001</v>
+        <v>0.7666666666666666</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2022-06-13</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>0.7666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>2022-06-13</t>
+          <t>2021-12-13</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.2333333333333333</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>2021-12-13</t>
+          <t>2022-05-30</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>2022-05-30</t>
+          <t>2021-08-30</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>2021-08-30</t>
+          <t>2020-10-29</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>2020-10-29</t>
+          <t>2024-04-17</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>0.6666666666666666</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>2024-04-17</t>
+          <t>2023-10-02</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>-0.6</v>
+        <v>-0.36</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
+          <t>2023-06-27</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>-0.36</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>2023-06-27</t>
+          <t>2023-04-28</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>-0.06</v>
+        <v>0.4000000000000001</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>2023-04-28</t>
+          <t>2023-11-22</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>0.4000000000000001</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>2023-11-22</t>
+          <t>2024-05-23</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>0.25</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>2024-05-23</t>
+          <t>2024-05-10</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>2024-05-10</t>
+          <t>2024-03-27</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>0.6333333333333333</v>
+        <v>-0.5666666666666667</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>2024-03-27</t>
+          <t>2024-01-04</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>-0.5666666666666667</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>2024-01-04</t>
+          <t>2023-10-26</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>2023-10-26</t>
+          <t>2023-09-24</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>0.2</v>
+        <v>0.7666666666666666</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>2023-09-24</t>
+          <t>2023-12-13</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>0.7666666666666666</v>
+        <v>0.2333333333333333</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>2023-12-13</t>
+          <t>2024-01-28</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>2024-01-28</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>0.04</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>2023-01-12</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>2023-01-12</t>
+          <t>2020-01-19</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>0.25</v>
+        <v>0.7666666666666666</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>2020-01-19</t>
+          <t>2023-05-10</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>0.7666666666666666</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>2023-05-10</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>0.55</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>2023-08-03</t>
+          <t>2021-03-05</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>0.15</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>2021-03-05</t>
+          <t>2023-10-03</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>2023-10-03</t>
+          <t>2021-07-23</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>0.1666666666666667</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>2021-07-23</t>
+          <t>2024-01-23</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="inlineStr">
-        <is>
-          <t>2024-01-23</t>
-        </is>
-      </c>
-      <c r="B416" t="n">
         <v>-0.5666666666666668</v>
       </c>
     </row>
@@ -4609,7 +4599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D107"/>
+  <dimension ref="A1:D105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4642,1695 +4632,1663 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2010-05</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8000000000000002</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2011-09</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.263157894736842</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2013-08</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8000000000000002</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2014-03</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3166666666666667</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6041666666666667</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2014-06</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4</v>
+        <v>0.6999999999999998</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.263157894736842</v>
+        <v>0.1052631578947367</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2014-07</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3333333333333333</v>
+        <v>-0.6666666666666666</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2014-08</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.05</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1875</v>
+        <v>-0.7857142857142857</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2014-10</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6999999999999998</v>
+        <v>0.5499999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1052631578947367</v>
+        <v>9.999999999999998</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2014-11</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.4133333333333333</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.6666666666666666</v>
+        <v>-0.2484848484848485</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2015-02</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.05</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.7857142857142857</v>
+        <v>0.2903225806451615</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2015-03</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5499999999999999</v>
+        <v>-0.28</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>9.999999999999998</v>
+        <v>-1.525</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2015-04</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4133333333333333</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.2484848484848485</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2015-05</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5722222222222223</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.2903225806451615</v>
+        <v>3</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2015-06</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.28</v>
+        <v>0.1</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.525</v>
+        <v>-0.825242718446602</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2015-07</t>
+          <t>2016-01</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-0.7333333333333334</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>-1</v>
+        <v>-8.333333333333334</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2015-09</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.5722222222222223</v>
+        <v>0.1</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-1.136363636363636</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2015-11</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.825242718446602</v>
+        <v>4.833333333333333</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2016-01</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.7333333333333334</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.333333333333334</v>
+        <v>-0.4666666666666667</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2016-04</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1</v>
+        <v>0.6555555555555556</v>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.136363636363636</v>
+        <v>1.107142857142857</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2016-05</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.3453333333333333</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>4.833333333333333</v>
+        <v>-0.4732203389830508</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2016-06</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3111111111111111</v>
+        <v>0.4733333333333333</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.4666666666666667</v>
+        <v>0.3706563706563706</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2016-07</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.6555555555555556</v>
+        <v>0.4722222222222223</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D23" t="n">
-        <v>1.107142857142857</v>
+        <v>-0.002347417840375288</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2016-08</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3453333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="C24" t="n">
         <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.4732203389830508</v>
+        <v>-0.1529411764705884</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2016-09</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.4733333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3706563706563706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2016-10</t>
+          <t>2017-01</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.4722222222222223</v>
+        <v>-0.5333333333333333</v>
       </c>
       <c r="C26" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.002347417840375288</v>
+        <v>-2.333333333333333</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2016-11</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.4</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.1529411764705884</v>
+        <v>-2.1875</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2016-12</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>0.4</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>-0.3684210526315789</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2017-04</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.7666666666666666</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.9166666666666665</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2017-06</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.4</v>
+        <v>0.6166666666666666</v>
       </c>
       <c r="C30" t="n">
         <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.3684210526315789</v>
+        <v>-0.1956521739130436</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2017-07</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.7666666666666666</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9166666666666665</v>
+        <v>-0.2072072072072071</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2017-09</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.6166666666666666</v>
+        <v>0.2</v>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.1956521739130436</v>
+        <v>-0.5909090909090908</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2017-10</t>
+          <t>2018-01</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.4888888888888889</v>
+        <v>0.3175</v>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.2072072072072071</v>
+        <v>0.5874999999999999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2017-12</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.2</v>
+        <v>0.2366666666666666</v>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.5909090909090908</v>
+        <v>-0.2545931758530185</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2018-01</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.3175</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5874999999999999</v>
+        <v>0.830985915492958</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2018-02</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.2366666666666666</v>
+        <v>0.6333333333333334</v>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.2545931758530185</v>
+        <v>0.4615384615384619</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2018-03</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.6066666666666667</v>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D37" t="n">
-        <v>0.830985915492958</v>
+        <v>-0.04210526315789487</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2018-04</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.6333333333333334</v>
+        <v>0.6</v>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4615384615384619</v>
+        <v>-0.01098901098901106</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2018-05</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.6066666666666667</v>
+        <v>0.2266666666666667</v>
       </c>
       <c r="C39" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.04210526315789487</v>
+        <v>-0.6222222222222221</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2018-06</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.6</v>
+        <v>0.5638888888888889</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.01098901098901106</v>
+        <v>1.487745098039215</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2018-07</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2266666666666667</v>
+        <v>0.71</v>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.6222222222222221</v>
+        <v>0.2591133004926107</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2018-08</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.5638888888888889</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="C42" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D42" t="n">
-        <v>1.487745098039215</v>
+        <v>-0.03755868544600927</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2018-09</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.71</v>
+        <v>0.6555555555555554</v>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2591133004926107</v>
+        <v>-0.04065040650406526</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2018-10</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.6999999999999998</v>
       </c>
       <c r="C44" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.03755868544600927</v>
+        <v>0.06779661016949157</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2018-11</t>
+          <t>2019-01</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.6555555555555554</v>
+        <v>0.2422222222222222</v>
       </c>
       <c r="C45" t="n">
         <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.04065040650406526</v>
+        <v>-0.6539682539682539</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2018-12</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.6999999999999998</v>
+        <v>0.45</v>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D46" t="n">
-        <v>0.06779661016949157</v>
+        <v>0.857798165137615</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2019-01</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.2422222222222222</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.6539682539682539</v>
+        <v>-0.1851851851851853</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2019-02</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.45</v>
+        <v>0.4404761904761904</v>
       </c>
       <c r="C48" t="n">
         <v>7</v>
       </c>
       <c r="D48" t="n">
-        <v>0.857798165137615</v>
+        <v>0.2012987012987013</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2019-03</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.6777777777777777</v>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.1851851851851853</v>
+        <v>0.5387387387387388</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2019-04</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.4404761904761904</v>
+        <v>0.6888888888888888</v>
       </c>
       <c r="C50" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>0.2012987012987013</v>
+        <v>0.01639344262295084</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2019-05</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.6777777777777777</v>
+        <v>0.4625</v>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5387387387387388</v>
+        <v>-0.3286290322580644</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2019-06</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.6888888888888888</v>
+        <v>0.295</v>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
-        <v>0.01639344262295084</v>
+        <v>-0.3621621621621622</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2019-07</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.4625</v>
+        <v>0.5966666666666667</v>
       </c>
       <c r="C53" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.3286290322580644</v>
+        <v>1.022598870056497</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2019-08</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.295</v>
+        <v>0.2973333333333333</v>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.3621621621621622</v>
+        <v>-0.5016759776536314</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2019-09</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.5966666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C55" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>1.022598870056497</v>
+        <v>1.242152466367713</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2019-10</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.2973333333333333</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="C56" t="n">
         <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.5016759776536314</v>
+        <v>-0.65</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2019-11</t>
+          <t>2020-01</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3652380952380953</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D57" t="n">
-        <v>1.242152466367713</v>
+        <v>0.5653061224489802</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2019-12</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.65</v>
+        <v>0.5971316818774441</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2020-01</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.3652380952380953</v>
+        <v>0.4</v>
       </c>
       <c r="C59" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5653061224489802</v>
+        <v>-0.3142857142857142</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2020-02</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.5833333333333333</v>
+        <v>-0.08333333333333331</v>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5971316818774441</v>
+        <v>-1.208333333333333</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2020-03</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.4</v>
+        <v>0.2333333333333334</v>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.3142857142857142</v>
+        <v>-3.800000000000001</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2020-04</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-0.08333333333333331</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="C62" t="n">
         <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>-1.208333333333333</v>
+        <v>1.642857142857142</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2020-06</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.2333333333333334</v>
+        <v>0.04999999999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>-3.800000000000001</v>
+        <v>-0.918918918918919</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2020-07</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.496</v>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>1.642857142857142</v>
+        <v>8.920000000000002</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2020-08</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.04999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="C65" t="n">
         <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.918918918918919</v>
+        <v>-0.04233870967741937</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2020-10</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.496</v>
+        <v>-0.04</v>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>8.920000000000002</v>
+        <v>-1.08421052631579</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2020-11</t>
+          <t>2021-01</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.475</v>
+        <v>0.361111111111111</v>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.04233870967741937</v>
+        <v>-10.02777777777778</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2020-12</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-0.04</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>-1.08421052631579</v>
+        <v>0.7538461538461543</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2021-01</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.361111111111111</v>
+        <v>0.71</v>
       </c>
       <c r="C69" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>-10.02777777777778</v>
+        <v>0.1210526315789473</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2021-02</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.5288888888888889</v>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
-        <v>0.7538461538461543</v>
+        <v>-0.2550860719874805</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2021-03</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.71</v>
+        <v>0.4214285714285714</v>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D71" t="n">
-        <v>0.1210526315789473</v>
+        <v>-0.2031812725090036</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2021-04</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.5288888888888889</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="C72" t="n">
         <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.2550860719874805</v>
+        <v>0.2128060263653484</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2021-05</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.4214285714285714</v>
+        <v>0.4546666666666667</v>
       </c>
       <c r="C73" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.2031812725090036</v>
+        <v>-0.1104347826086954</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.5111111111111111</v>
+        <v>0.5</v>
       </c>
       <c r="C74" t="n">
         <v>3</v>
       </c>
       <c r="D74" t="n">
-        <v>0.2128060263653484</v>
+        <v>0.0997067448680351</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.4546666666666667</v>
+        <v>0.1166666666666668</v>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.1104347826086954</v>
+        <v>-0.7666666666666664</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0997067448680351</v>
+        <v>2.257142857142854</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.1166666666666668</v>
+        <v>0.6266666666666667</v>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.7666666666666664</v>
+        <v>0.6491228070175439</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>2.257142857142854</v>
+        <v>-0.5212765957446809</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.6266666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>0.6491228070175439</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2021-12</t>
+          <t>2022-04</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.3</v>
+        <v>0.5541666666666667</v>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.5212765957446809</v>
+        <v>-0.2611111111111111</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.75</v>
+        <v>0.7033333333333334</v>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>1.5</v>
+        <v>0.269172932330827</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2022-04</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.5541666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="C82" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.2611111111111111</v>
+        <v>-0.4312796208530806</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-07</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.7033333333333334</v>
+        <v>0.6136363636363636</v>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D83" t="n">
-        <v>0.269172932330827</v>
+        <v>0.5340909090909089</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.4</v>
+        <v>0.7166666666666668</v>
       </c>
       <c r="C84" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.4312796208530806</v>
+        <v>0.1679012345679014</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2022-07</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.6136363636363636</v>
+        <v>0.54</v>
       </c>
       <c r="C85" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>0.5340909090909089</v>
+        <v>-0.2465116279069768</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.7166666666666668</v>
+        <v>0.3400000000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
-        <v>0.1679012345679014</v>
+        <v>-0.3703703703703702</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2022-09</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.54</v>
+        <v>-0.1522222222222222</v>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.2465116279069768</v>
+        <v>-1.447712418300653</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.3400000000000001</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="C88" t="n">
         <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.3703703703703702</v>
+        <v>-2.094890510948905</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2023-02</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-0.1522222222222222</v>
+        <v>-0.2622222222222222</v>
       </c>
       <c r="C89" t="n">
         <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>-1.447712418300653</v>
+        <v>-2.573333333333334</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.3366666666666667</v>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>-2.094890510948905</v>
+        <v>-2.283898305084746</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2023-04</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-0.2622222222222222</v>
+        <v>-0.2111111111111111</v>
       </c>
       <c r="C91" t="n">
         <v>3</v>
       </c>
       <c r="D91" t="n">
-        <v>-2.573333333333334</v>
+        <v>-1.627062706270627</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2023-05</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.3366666666666667</v>
+        <v>0.1476190476190476</v>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D92" t="n">
-        <v>-2.283898305084746</v>
+        <v>-1.699248120300752</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2023-04</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-0.2111111111111111</v>
+        <v>-0.33</v>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>-1.627062706270627</v>
+        <v>-3.235483870967742</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.1476190476190476</v>
+        <v>0.47</v>
       </c>
       <c r="C94" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>-1.699248120300752</v>
+        <v>-2.424242424242424</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2023-08</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-0.33</v>
+        <v>0.2706060606060606</v>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D95" t="n">
-        <v>-3.235483870967742</v>
+        <v>-0.4242424242424242</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2023-07</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.47</v>
+        <v>0.7277777777777777</v>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
-        <v>-2.424242424242424</v>
+        <v>1.68943635684957</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2023-08</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.2706060606060606</v>
+        <v>0.09277777777777779</v>
       </c>
       <c r="C97" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.4242424242424242</v>
+        <v>-0.8725190839694656</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>2023-11</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.7277777777777777</v>
+        <v>0.2991666666666667</v>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D98" t="n">
-        <v>1.68943635684957</v>
+        <v>2.224550898203593</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.09277777777777779</v>
+        <v>0.232</v>
       </c>
       <c r="C99" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.8725190839694656</v>
+        <v>-0.2245125348189415</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2023-11</t>
+          <t>2024-01</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.2991666666666667</v>
+        <v>0.07999999999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D100" t="n">
-        <v>2.224550898203593</v>
+        <v>-0.6551724137931035</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.232</v>
+        <v>0.3444444444444445</v>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.2245125348189415</v>
+        <v>3.305555555555557</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2024-01</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.07999999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="C102" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.6551724137931035</v>
+        <v>-0.7096774193548387</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2024-02</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.3444444444444445</v>
+        <v>0.2880952380952381</v>
       </c>
       <c r="C103" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D103" t="n">
-        <v>3.305555555555557</v>
+        <v>1.880952380952382</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.4952380952380952</v>
       </c>
       <c r="C104" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.7096774193548387</v>
+        <v>0.7190082644628095</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2024-04</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.2880952380952381</v>
+        <v>0.165</v>
       </c>
       <c r="C105" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D105" t="n">
-        <v>1.880952380952382</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>2024-05</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>0.4952380952380952</v>
-      </c>
-      <c r="C106" t="n">
-        <v>7</v>
-      </c>
-      <c r="D106" t="n">
-        <v>0.7190082644628095</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>2024-06</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>0.165</v>
-      </c>
-      <c r="C107" t="n">
-        <v>6</v>
-      </c>
-      <c r="D107" t="n">
         <v>-0.666826923076923</v>
       </c>
     </row>
@@ -6345,7 +6303,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6378,701 +6336,669 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2010Q2</t>
+          <t>2014Q1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8000000000000002</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2011Q3</t>
+          <t>2014Q2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.263157894736842</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2013Q3</t>
+          <t>2014Q3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8000000000000002</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.520833333333333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2014Q1</t>
+          <t>2014Q4</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3166666666666667</v>
+        <v>0.3888888888888888</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6041666666666667</v>
+        <v>-0.3607305936073061</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2014Q2</t>
+          <t>2015Q1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.263157894736842</v>
+        <v>0.1571428571428575</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2014Q3</t>
+          <t>2015Q2</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.3377777777777777</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.520833333333333</v>
+        <v>-0.249382716049383</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2014Q4</t>
+          <t>2015Q3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3888888888888888</v>
+        <v>0.4291666666666667</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.3607305936073061</v>
+        <v>0.2705592105263162</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2015Q1</t>
+          <t>2015Q4</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.45</v>
+        <v>0.1</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1571428571428575</v>
+        <v>-0.7669902912621359</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2015Q2</t>
+          <t>2016Q1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3377777777777777</v>
+        <v>-0.7333333333333334</v>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.249382716049383</v>
+        <v>-8.333333333333334</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2015Q3</t>
+          <t>2016Q2</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4291666666666667</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2705592105263162</v>
+        <v>-1.378787878787879</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2015Q4</t>
+          <t>2016Q3</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1</v>
+        <v>0.4661538461538462</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.7669902912621359</v>
+        <v>0.6781538461538463</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2016Q1</t>
+          <t>2016Q4</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.7333333333333334</v>
+        <v>0.4433333333333334</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.333333333333334</v>
+        <v>-0.0489548954895489</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2016Q2</t>
+          <t>2017Q1</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2777777777777778</v>
+        <v>-0.5333333333333333</v>
       </c>
       <c r="C14" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.378787878787879</v>
+        <v>-2.203007518796992</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2016Q3</t>
+          <t>2017Q2</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4661538461538462</v>
+        <v>0.4777777777777778</v>
       </c>
       <c r="C15" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6781538461538463</v>
+        <v>-1.895833333333333</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2016Q4</t>
+          <t>2017Q3</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4433333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C16" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.0489548954895489</v>
+        <v>0.3953488372093021</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2017Q2</t>
+          <t>2017Q4</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4777777777777778</v>
+        <v>0.3238095238095238</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D17" t="n">
-        <v>0.07769423558897226</v>
+        <v>-0.5142857142857142</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2017Q3</t>
+          <t>2018Q1</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.32625</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3953488372093021</v>
+        <v>0.00753676470588216</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2017Q4</t>
+          <t>2018Q2</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3238095238095238</v>
+        <v>0.6119047619047618</v>
       </c>
       <c r="C19" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.5142857142857142</v>
+        <v>0.8755701514322203</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2018Q1</t>
+          <t>2018Q3</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.32625</v>
+        <v>0.5682051282051283</v>
       </c>
       <c r="C20" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D20" t="n">
-        <v>0.00753676470588216</v>
+        <v>-0.0714157437892845</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2018Q2</t>
+          <t>2018Q4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.6119047619047618</v>
+        <v>0.6791666666666666</v>
       </c>
       <c r="C21" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8755701514322203</v>
+        <v>0.1952842960288805</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2018Q3</t>
+          <t>2019Q1</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.5682051282051283</v>
+        <v>0.3816666666666667</v>
       </c>
       <c r="C22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.0714157437892845</v>
+        <v>-0.4380368098159508</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2018Q4</t>
+          <t>2019Q2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.6791666666666666</v>
+        <v>0.5525641025641025</v>
       </c>
       <c r="C23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1952842960288805</v>
+        <v>0.4477662075915347</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2019Q1</t>
+          <t>2019Q3</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3816666666666667</v>
+        <v>0.4930303030303031</v>
       </c>
       <c r="C24" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.4380368098159508</v>
+        <v>-0.1077409829149966</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2019Q2</t>
+          <t>2019Q4</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.5525641025641025</v>
+        <v>0.3018181818181818</v>
       </c>
       <c r="C25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4477662075915347</v>
+        <v>-0.3878303626306085</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2019Q3</t>
+          <t>2020Q1</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.4930303030303031</v>
+        <v>0.435</v>
       </c>
       <c r="C26" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.1077409829149966</v>
+        <v>0.4412650602409638</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2019Q4</t>
+          <t>2020Q2</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.3018181818181818</v>
+        <v>0.1428571428571429</v>
       </c>
       <c r="C27" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.3878303626306085</v>
+        <v>-0.6715927750410509</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2020Q1</t>
+          <t>2020Q3</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.435</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C28" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4412650602409638</v>
+        <v>1.333333333333333</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2020Q2</t>
+          <t>2020Q4</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.1428571428571429</v>
+        <v>0.42375</v>
       </c>
       <c r="C29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.6715927750410509</v>
+        <v>0.2712500000000002</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2020Q3</t>
+          <t>2021Q1</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5371794871794872</v>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D30" t="n">
-        <v>1.333333333333333</v>
+        <v>0.267680205733303</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2020Q4</t>
+          <t>2021Q2</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.42375</v>
+        <v>0.4669230769230769</v>
       </c>
       <c r="C31" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2712500000000002</v>
+        <v>-0.1307875894988068</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2021Q1</t>
+          <t>2021Q3</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.5371794871794872</v>
+        <v>0.4006666666666667</v>
       </c>
       <c r="C32" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D32" t="n">
-        <v>0.267680205733303</v>
+        <v>-0.1419000549148818</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2021Q2</t>
+          <t>2021Q4</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.4669230769230769</v>
+        <v>0.4452380952380953</v>
       </c>
       <c r="C33" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.1307875894988068</v>
+        <v>0.111243166151652</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2021Q3</t>
+          <t>2022Q1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.4006666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="C34" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.1419000549148818</v>
+        <v>0.6844919786096253</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2021Q4</t>
+          <t>2022Q2</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.4452380952380953</v>
+        <v>0.5447368421052632</v>
       </c>
       <c r="C35" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D35" t="n">
-        <v>0.111243166151652</v>
+        <v>-0.2736842105263158</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2022Q1</t>
+          <t>2022Q3</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.75</v>
+        <v>0.6046296296296296</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6844919786096253</v>
+        <v>0.1099481123635713</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2022Q2</t>
+          <t>2022Q4</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.5447368421052632</v>
+        <v>0.09388888888888891</v>
       </c>
       <c r="C37" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.2736842105263158</v>
+        <v>-0.8447166921898928</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2022Q3</t>
+          <t>2023Q1</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.6046296296296296</v>
+        <v>0.04833333333333331</v>
       </c>
       <c r="C38" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1099481123635713</v>
+        <v>-0.4852071005917163</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2022Q4</t>
+          <t>2023Q2</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.09388888888888891</v>
+        <v>-0.02166666666666665</v>
       </c>
       <c r="C39" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.8447166921898928</v>
+        <v>-1.448275862068965</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2023Q1</t>
+          <t>2023Q3</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.04833333333333331</v>
+        <v>0.3952631578947368</v>
       </c>
       <c r="C40" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.4852071005917163</v>
+        <v>-19.2429149797571</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2023Q2</t>
+          <t>2023Q4</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.02166666666666665</v>
+        <v>0.2163157894736842</v>
       </c>
       <c r="C41" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D41" t="n">
-        <v>-1.448275862068965</v>
+        <v>-0.4527296937416777</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2023Q3</t>
+          <t>2024Q1</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.3952631578947368</v>
+        <v>0.1703703703703704</v>
       </c>
       <c r="C42" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D42" t="n">
-        <v>-19.2429149797571</v>
+        <v>-0.2123997476795529</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2023Q4</t>
+          <t>2024Q2</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2163157894736842</v>
+        <v>0.3236666666666667</v>
       </c>
       <c r="C43" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.4527296937416777</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>2024Q1</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>0.1703703703703704</v>
-      </c>
-      <c r="C44" t="n">
-        <v>18</v>
-      </c>
-      <c r="D44" t="n">
-        <v>-0.2123997476795529</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>2024Q2</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>0.3236666666666667</v>
-      </c>
-      <c r="C45" t="n">
-        <v>20</v>
-      </c>
-      <c r="D45" t="n">
         <v>0.8997826086956522</v>
       </c>
     </row>
@@ -7087,7 +7013,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7119,195 +7045,153 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8000000000000002</v>
+        <v>0.4633333333333333</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8000000000000002</v>
+        <v>0.3808333333333334</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0.1780575539568343</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8000000000000002</v>
+        <v>0.388217054263566</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.01938832629382747</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4633333333333333</v>
+        <v>0.3088888888888889</v>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.4208333333333335</v>
+        <v>-0.2043397231096914</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3808333333333334</v>
+        <v>0.5683687943262411</v>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1780575539568343</v>
+        <v>0.8400428593295575</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B7" t="n">
-        <v>0.388217054263566</v>
+        <v>0.4448888888888888</v>
       </c>
       <c r="C7" t="n">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01938832629382747</v>
+        <v>-0.2172531403377425</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4384615384615385</v>
+        <v>0.357979797979798</v>
       </c>
       <c r="C8" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1294236913246496</v>
+        <v>-0.1953501044410133</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5683687943262411</v>
+        <v>0.4658666666666667</v>
       </c>
       <c r="C9" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2962797063580935</v>
+        <v>0.3013769751693003</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4448888888888888</v>
+        <v>0.5124242424242424</v>
       </c>
       <c r="C10" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.2172531403377425</v>
+        <v>0.09993755528958737</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="B11" t="n">
-        <v>0.357979797979798</v>
+        <v>0.2025287356321839</v>
       </c>
       <c r="C11" t="n">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1953501044410133</v>
+        <v>-0.6047635555374294</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4658666666666667</v>
+        <v>0.2510526315789474</v>
       </c>
       <c r="C12" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3013769751693003</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.5124242424242424</v>
-      </c>
-      <c r="C13" t="n">
-        <v>44</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.09993755528958737</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.2025287356321839</v>
-      </c>
-      <c r="C14" t="n">
-        <v>58</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-0.6047635555374294</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.2510526315789474</v>
-      </c>
-      <c r="C15" t="n">
-        <v>38</v>
-      </c>
-      <c r="D15" t="n">
         <v>0.2395901786247687</v>
       </c>
     </row>
